--- a/biology/Médecine/Tout_Prévoir/Tout_Prévoir.xlsx
+++ b/biology/Médecine/Tout_Prévoir/Tout_Prévoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tout_Pr%C3%A9voir</t>
+          <t>Tout_Prévoir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tout Prévoir, « le mensuel du praticien », est une revue d’information médicale éditée par les éditions Tout Prévoir et vendue sur abonnement. Elle s’adresse aux professionnels de santé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tout_Pr%C3%A9voir</t>
+          <t>Tout_Prévoir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10 numéros par an dont deux thématiques[1]
-18 000 lecteurs[2]
-2e diffusion payée de la presse professionnelle médicale mensuelle[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 numéros par an dont deux thématiques
+18 000 lecteurs
+2e diffusion payée de la presse professionnelle médicale mensuelle</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tout_Pr%C3%A9voir</t>
+          <t>Tout_Prévoir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Rubriques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La revue Tout Prévoir s’articule autour de quatre principaux axes : « Perspectives » (santé publique, recherche, interviews, sagesses médicales,…), « DPC » (entretiens, congrès, médecine au quotidien, cas cliniques, pharmacovigilance,…), « Profession » (politique de santé, gestion du cabinet, droit, fiscalité et prévoyance,…), « Art de vivre » (voyages, spectacles, cinéma, critiques littéraires,…).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tout_Pr%C3%A9voir</t>
+          <t>Tout_Prévoir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Éditeur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout Prévoir est une revue de groupement du domaine de la presse professionnelle médicale, qui fut créé à l’origine par l’Association Générale des Médecins de France en direction de ses membres. La revue bénéficie d’un numéro de commission paritaire.
 La revue Tout Prévoir est éditée par les éditions Tout Prévoir, SARL de presse appartenant à 100 % à Groupe Pasteur Mutualité.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tout_Pr%C3%A9voir</t>
+          <t>Tout_Prévoir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1966, lancement du Bulletin de l’Association Générale des Médecins de France dont la revue Tout Prévoir est issue.
 En 1979, le titre Tout Prévoir apparaît en base line du bulletin. le magazine adopte un positionnement plus convivial et ouvert sur le monde.
